--- a/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
@@ -520,16 +520,16 @@
         <v>1606</v>
       </c>
       <c r="C2" t="n">
-        <v>7.658779576587796</v>
+        <v>3.673723536737235</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v>218</v>
       </c>
       <c r="F2" t="n">
-        <v>15.13761467889908</v>
+        <v>9.63302752293578</v>
       </c>
       <c r="G2" t="n">
         <v>199</v>
@@ -541,22 +541,22 @@
         <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8990825688073395</v>
+        <v>0.9174311926605505</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9311163895486936</v>
+        <v>0.9569377990430622</v>
       </c>
       <c r="N2" t="n">
-        <v>95.68623668619792</v>
+        <v>96.56995857744988</v>
       </c>
       <c r="O2" t="n">
-        <v>77.27378395087624</v>
+        <v>81.5569686536343</v>
       </c>
     </row>
     <row r="3">
@@ -569,43 +569,43 @@
         <v>3580</v>
       </c>
       <c r="C3" t="n">
-        <v>6.033519553072626</v>
+        <v>2.625698324022347</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="E3" t="n">
         <v>597</v>
       </c>
       <c r="F3" t="n">
-        <v>13.90284757118928</v>
+        <v>10.2177554438861</v>
       </c>
       <c r="G3" t="n">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H3" t="n">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="I3" t="n">
         <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9061976549413735</v>
+        <v>0.8994974874371859</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9507908611599297</v>
+        <v>0.9470899470899471</v>
       </c>
       <c r="N3" t="n">
-        <v>99.28207050115756</v>
+        <v>99.53424214427997</v>
       </c>
       <c r="O3" t="n">
-        <v>80.07307631192411</v>
+        <v>81.3294121549341</v>
       </c>
     </row>
     <row r="4">
@@ -618,16 +618,16 @@
         <v>1363</v>
       </c>
       <c r="C4" t="n">
-        <v>15.55392516507704</v>
+        <v>10.78503301540719</v>
       </c>
       <c r="D4" t="n">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E4" t="n">
         <v>190</v>
       </c>
       <c r="F4" t="n">
-        <v>20.52631578947368</v>
+        <v>13.68421052631579</v>
       </c>
       <c r="G4" t="n">
         <v>183</v>
@@ -639,22 +639,22 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9263157894736842</v>
+        <v>0.9631578947368421</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9336870026525199</v>
+        <v>0.9812332439678284</v>
       </c>
       <c r="N4" t="n">
-        <v>95.34881718522983</v>
+        <v>97.59443896363889</v>
       </c>
       <c r="O4" t="n">
-        <v>83.62080435261642</v>
+        <v>88.94684746236695</v>
       </c>
     </row>
     <row r="5">
@@ -667,16 +667,16 @@
         <v>3133</v>
       </c>
       <c r="C5" t="n">
-        <v>3.096074050430897</v>
+        <v>1.595914458984998</v>
       </c>
       <c r="D5" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>438</v>
       </c>
       <c r="F5" t="n">
-        <v>11.64383561643836</v>
+        <v>9.360730593607306</v>
       </c>
       <c r="G5" t="n">
         <v>399</v>
@@ -688,22 +688,22 @@
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9799498746867168</v>
+        <v>0.9974937343358395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8926940639269406</v>
+        <v>0.908675799086758</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9342891278375149</v>
+        <v>0.951015531660693</v>
       </c>
       <c r="N5" t="n">
-        <v>94.61758523831746</v>
+        <v>95.13393960746809</v>
       </c>
       <c r="O5" t="n">
-        <v>77.34237718984882</v>
+        <v>79.10618276297944</v>
       </c>
     </row>
     <row r="6">
@@ -716,16 +716,16 @@
         <v>1549</v>
       </c>
       <c r="C6" t="n">
-        <v>6.778566817301485</v>
+        <v>2.646868947708199</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
         <v>204</v>
       </c>
       <c r="F6" t="n">
-        <v>14.70588235294118</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="G6" t="n">
         <v>188</v>
@@ -737,22 +737,22 @@
         <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9430051813471503</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8921568627450981</v>
+        <v>0.9362745098039216</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9168765743073047</v>
+        <v>0.9670886075949368</v>
       </c>
       <c r="N6" t="n">
-        <v>92.99933816665425</v>
+        <v>94.19397465056774</v>
       </c>
       <c r="O6" t="n">
-        <v>78.28996217759803</v>
+        <v>82.92950481810351</v>
       </c>
     </row>
     <row r="7">
@@ -863,43 +863,43 @@
         <v>2140</v>
       </c>
       <c r="C9" t="n">
-        <v>3.878504672897196</v>
+        <v>0.8878504672897197</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
         <v>332</v>
       </c>
       <c r="F9" t="n">
-        <v>6.325301204819277</v>
+        <v>2.710843373493976</v>
       </c>
       <c r="G9" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H9" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.963855421686747</v>
+        <v>0.9759036144578314</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9878048780487805</v>
       </c>
       <c r="N9" t="n">
-        <v>99.1030359913957</v>
+        <v>99.32524965489982</v>
       </c>
       <c r="O9" t="n">
-        <v>90.65216313103643</v>
+        <v>93.59786521773844</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
@@ -517,28 +517,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606</v>
+        <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>3.673723536737235</v>
+        <v>3.569152326322499</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>9.63302752293578</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="G2" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H2" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>18</v>
@@ -547,16 +547,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9174311926605505</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9569377990430622</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="N2" t="n">
-        <v>96.56995857744988</v>
+        <v>96.28759755692788</v>
       </c>
       <c r="O2" t="n">
-        <v>81.5569686536343</v>
+        <v>81.38137967616042</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3580</v>
+        <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>2.625698324022347</v>
+        <v>0.7151029748283754</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F3" t="n">
-        <v>10.2177554438861</v>
+        <v>4.745762711864407</v>
       </c>
       <c r="G3" t="n">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="H3" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8994974874371859</v>
+        <v>0.9525423728813559</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9470899470899471</v>
+        <v>0.9756944444444444</v>
       </c>
       <c r="N3" t="n">
-        <v>99.53424214427997</v>
+        <v>99.53164347552973</v>
       </c>
       <c r="O3" t="n">
-        <v>81.3294121549341</v>
+        <v>91.61430292209448</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1363</v>
+        <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>10.78503301540719</v>
+        <v>10.81893313298272</v>
       </c>
       <c r="D4" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>13.68421052631579</v>
+        <v>13.58695652173913</v>
       </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H4" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9631578947368421</v>
+        <v>0.9673913043478261</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9812332439678284</v>
+        <v>0.9834254143646409</v>
       </c>
       <c r="N4" t="n">
-        <v>97.59443896363889</v>
+        <v>97.61186702418581</v>
       </c>
       <c r="O4" t="n">
-        <v>88.94684746236695</v>
+        <v>89.98738474801192</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3133</v>
+        <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>1.595914458984998</v>
+        <v>1.598694942903752</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F5" t="n">
-        <v>9.360730593607306</v>
+        <v>9.174311926605505</v>
       </c>
       <c r="G5" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H5" t="n">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9974937343358395</v>
+        <v>0.9974874371859297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.908675799086758</v>
+        <v>0.9105504587155964</v>
       </c>
       <c r="M5" t="n">
-        <v>0.951015531660693</v>
+        <v>0.9520383693045563</v>
       </c>
       <c r="N5" t="n">
-        <v>95.13393960746809</v>
+        <v>95.18576092089435</v>
       </c>
       <c r="O5" t="n">
-        <v>79.10618276297944</v>
+        <v>79.22703433399192</v>
       </c>
     </row>
     <row r="6">
@@ -713,28 +713,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1549</v>
+        <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>2.646868947708199</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F6" t="n">
-        <v>8.823529411764707</v>
+        <v>8.585858585858585</v>
       </c>
       <c r="G6" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H6" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>13</v>
@@ -743,16 +743,16 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9362745098039216</v>
+        <v>0.9343434343434344</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9670886075949368</v>
+        <v>0.9660574412532638</v>
       </c>
       <c r="N6" t="n">
-        <v>94.19397465056774</v>
+        <v>94.94906532848486</v>
       </c>
       <c r="O6" t="n">
-        <v>82.92950481810351</v>
+        <v>82.79485728856582</v>
       </c>
     </row>
     <row r="7">
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2129</v>
+        <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>28.93377172381399</v>
+        <v>24.34567901234568</v>
       </c>
       <c r="D7" t="n">
-        <v>616</v>
+        <v>493</v>
       </c>
       <c r="E7" t="n">
         <v>268</v>
       </c>
       <c r="F7" t="n">
-        <v>88.43283582089553</v>
+        <v>82.83582089552239</v>
       </c>
       <c r="G7" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H7" t="n">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8624338624338624</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6082089552238806</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7133479212253829</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="N7" t="n">
-        <v>71.02218129282517</v>
+        <v>66.77553778869046</v>
       </c>
       <c r="O7" t="n">
-        <v>32.71551340024379</v>
+        <v>34.75480971164877</v>
       </c>
     </row>
     <row r="8">
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2814</v>
+        <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8884150675195452</v>
+        <v>0.8351488743645605</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F8" t="n">
-        <v>1.276595744680851</v>
+        <v>0.6479481641468683</v>
       </c>
       <c r="G8" t="n">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H8" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9957446808510638</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.997867803837953</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>99.97797599356684</v>
+        <v>99.97794685164514</v>
       </c>
       <c r="O8" t="n">
-        <v>97.48405802135697</v>
+        <v>98.37038018727554</v>
       </c>
     </row>
     <row r="9">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2140</v>
+        <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8878504672897197</v>
+        <v>0.9000473709142587</v>
       </c>
       <c r="D9" t="n">
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F9" t="n">
-        <v>2.710843373493976</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="G9" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H9" t="n">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
@@ -890,16 +890,16 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9759036144578314</v>
+        <v>0.9757575757575757</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9878048780487805</v>
+        <v>0.9877300613496932</v>
       </c>
       <c r="N9" t="n">
-        <v>99.32524965489982</v>
+        <v>99.49989876462966</v>
       </c>
       <c r="O9" t="n">
-        <v>93.59786521773844</v>
+        <v>93.55857075914919</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1569</v>
       </c>
       <c r="C2" t="n">
-        <v>3.569152326322499</v>
+        <v>1531</v>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.123008285532186</v>
+      </c>
+      <c r="G2" t="n">
         <v>216</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.722222222222223</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>197</v>
       </c>
-      <c r="H2" t="n">
-        <v>208</v>
-      </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
+        <v>11.57407407407407</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10.18518518518519</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91.20370370370371</v>
+      </c>
+      <c r="P2" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>96.28759755692788</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>81.38137967616042</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>3496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7151029748283754</v>
+        <v>3477</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7723112128146453</v>
+      </c>
+      <c r="G3" t="n">
         <v>590</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.745762711864407</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>562</v>
       </c>
-      <c r="H3" t="n">
-        <v>570</v>
-      </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>563</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L3" t="n">
+        <v>2.711864406779661</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.542372881355933</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>95.25423728813558</v>
+      </c>
+      <c r="P3" t="n">
+        <v>95.42372881355932</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.9525423728813559</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9756944444444444</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>99.53164347552973</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>91.61430292209448</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1331</v>
       </c>
       <c r="C4" t="n">
-        <v>10.81893313298272</v>
+        <v>1305</v>
       </c>
       <c r="D4" t="n">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.554470323065364</v>
+      </c>
+      <c r="G4" t="n">
         <v>184</v>
       </c>
-      <c r="F4" t="n">
-        <v>13.58695652173913</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>178</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>181</v>
       </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
+        <v>3.260869565217391</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.630434782608696</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>96.73913043478261</v>
+      </c>
+      <c r="P4" t="n">
+        <v>98.36956521739131</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.9673913043478261</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.9834254143646409</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>97.61186702418581</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>89.98738474801192</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>3065</v>
       </c>
       <c r="C5" t="n">
-        <v>1.598694942903752</v>
+        <v>3042</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.468189233278956</v>
+      </c>
+      <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="F5" t="n">
-        <v>9.174311926605505</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>398</v>
       </c>
-      <c r="H5" t="n">
-        <v>433</v>
-      </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>26</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.403669724770642</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.192660550458716</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91.28440366972477</v>
+      </c>
+      <c r="P5" t="n">
+        <v>94.49541284403669</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9974874371859297</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.9105504587155964</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.9520383693045563</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>95.18576092089435</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>79.22703433399192</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1496</v>
       </c>
       <c r="C6" t="n">
-        <v>2.272727272727273</v>
+        <v>1475</v>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.406417112299465</v>
+      </c>
+      <c r="G6" t="n">
         <v>198</v>
       </c>
-      <c r="F6" t="n">
-        <v>8.585858585858585</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>182</v>
       </c>
-      <c r="H6" t="n">
-        <v>193</v>
-      </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
+        <v>6.565656565656567</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>91.91919191919192</v>
+      </c>
+      <c r="P6" t="n">
+        <v>93.93939393939394</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.9343434343434344</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9660574412532638</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>94.94906532848486</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>82.79485728856582</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>24.34567901234568</v>
+        <v>1944</v>
       </c>
       <c r="D7" t="n">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
+        <v>408</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.14814814814815</v>
+      </c>
+      <c r="G7" t="n">
         <v>268</v>
       </c>
-      <c r="F7" t="n">
-        <v>82.83582089552239</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>194</v>
       </c>
-      <c r="H7" t="n">
-        <v>230</v>
-      </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="J7" t="n">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
+        <v>203</v>
+      </c>
+      <c r="L7" t="n">
+        <v>80.97014925373134</v>
+      </c>
+      <c r="M7" t="n">
+        <v>78.35820895522389</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>72.38805970149254</v>
+      </c>
+      <c r="P7" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.6268656716417911</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.7241379310344828</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>66.77553778869046</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>34.75480971164877</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>2754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8351488743645605</v>
+        <v>2736</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.343500363108206</v>
+      </c>
+      <c r="G8" t="n">
         <v>463</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.6479481641468683</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>460</v>
       </c>
-      <c r="H8" t="n">
-        <v>463</v>
-      </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.2159827213822894</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.2159827213822894</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>99.35205183585313</v>
+      </c>
+      <c r="P8" t="n">
+        <v>99.35205183585313</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
         <v>99.97794685164514</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>98.37038018727554</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>2111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9000473709142587</v>
+        <v>2102</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5210800568450971</v>
+      </c>
+      <c r="G9" t="n">
         <v>330</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.727272727272727</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>321</v>
       </c>
-      <c r="H9" t="n">
-        <v>326</v>
-      </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
+        <v>2.424242424242424</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.121212121212122</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>97.27272727272728</v>
+      </c>
+      <c r="P9" t="n">
+        <v>97.57575757575758</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.9757575757575757</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9877300613496932</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>99.49989876462966</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>93.55857075914919</v>
       </c>
     </row>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,644 +436,673 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="F2" t="n">
+        <v>216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>205</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1343</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9193</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9318</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9491000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9624</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9339</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9469</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9629</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8138</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1569</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1531</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.123008285532186</v>
-      </c>
-      <c r="G2" t="n">
-        <v>216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>197</v>
-      </c>
-      <c r="I2" t="n">
-        <v>200</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11.57407407407407</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10.18518518518519</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91.20370370370371</v>
-      </c>
-      <c r="P2" t="n">
-        <v>92.5925925925926</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="T2" t="n">
-        <v>96.28759755692788</v>
-      </c>
-      <c r="U2" t="n">
-        <v>81.38137967616042</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3496</v>
       </c>
       <c r="B3" t="n">
-        <v>3496</v>
+        <v>3477</v>
       </c>
       <c r="C3" t="n">
-        <v>3477</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>0.0077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7723112128146453</v>
+        <v>590</v>
       </c>
       <c r="G3" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H3" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>563</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.711864406779661</v>
+        <v>0.0288</v>
       </c>
       <c r="M3" t="n">
-        <v>2.542372881355933</v>
+        <v>0.0254</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.9751</v>
       </c>
       <c r="O3" t="n">
-        <v>95.25423728813558</v>
+        <v>0.9767</v>
       </c>
       <c r="P3" t="n">
-        <v>95.42372881355932</v>
+        <v>0.9966</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9983</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9525423728813559</v>
+        <v>0.9858</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9756944444444444</v>
+        <v>0.9874000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>99.53164347552973</v>
+        <v>0.9953</v>
       </c>
       <c r="U3" t="n">
-        <v>91.61430292209448</v>
+        <v>0.9161</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="F4" t="n">
+        <v>184</v>
+      </c>
+      <c r="G4" t="n">
+        <v>180</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9945000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9756</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9917</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8999</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1331</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1305</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.554470323065364</v>
-      </c>
-      <c r="G4" t="n">
-        <v>184</v>
-      </c>
-      <c r="H4" t="n">
-        <v>178</v>
-      </c>
-      <c r="I4" t="n">
-        <v>181</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.260869565217391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.630434782608696</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>96.73913043478261</v>
-      </c>
-      <c r="P4" t="n">
-        <v>98.36956521739131</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.9673913043478261</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9834254143646409</v>
-      </c>
-      <c r="T4" t="n">
-        <v>97.61186702418581</v>
-      </c>
-      <c r="U4" t="n">
-        <v>89.98738474801192</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3042</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="F5" t="n">
+        <v>436</v>
+      </c>
+      <c r="G5" t="n">
+        <v>419</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1307</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0665</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9129</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9416</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9929</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9363</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9666</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9519</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.7923</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3065</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3042</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.468189233278956</v>
-      </c>
-      <c r="G5" t="n">
-        <v>436</v>
-      </c>
-      <c r="H5" t="n">
-        <v>398</v>
-      </c>
-      <c r="I5" t="n">
-        <v>412</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>26</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9.403669724770642</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.192660550458716</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91.28440366972477</v>
-      </c>
-      <c r="P5" t="n">
-        <v>94.49541284403669</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.9974874371859297</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9105504587155964</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9520383693045563</v>
-      </c>
-      <c r="T5" t="n">
-        <v>95.18576092089435</v>
-      </c>
-      <c r="U5" t="n">
-        <v>79.22703433399192</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>1496</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="F6" t="n">
+        <v>198</v>
+      </c>
+      <c r="G6" t="n">
+        <v>192</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9366</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9552</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9697</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9897</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9722</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.9495</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8279</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1496</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1475</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.406417112299465</v>
-      </c>
-      <c r="G6" t="n">
-        <v>198</v>
-      </c>
-      <c r="H6" t="n">
-        <v>182</v>
-      </c>
-      <c r="I6" t="n">
-        <v>186</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.565656565656567</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>91.91919191919192</v>
-      </c>
-      <c r="P6" t="n">
-        <v>93.93939393939394</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9343434343434344</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9660574412532638</v>
-      </c>
-      <c r="T6" t="n">
-        <v>94.94906532848486</v>
-      </c>
-      <c r="U6" t="n">
-        <v>82.79485728856582</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2025</v>
       </c>
       <c r="B7" t="n">
-        <v>2025</v>
+        <v>1944</v>
       </c>
       <c r="C7" t="n">
-        <v>1944</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="E7" t="n">
-        <v>408</v>
+        <v>0.2415</v>
       </c>
       <c r="F7" t="n">
-        <v>24.14814814814815</v>
+        <v>268</v>
       </c>
       <c r="G7" t="n">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="H7" t="n">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="J7" t="n">
         <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>80.97014925373134</v>
+        <v>0.847</v>
       </c>
       <c r="M7" t="n">
-        <v>78.35820895522389</v>
+        <v>0.7948</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>0.5439000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>72.38805970149254</v>
+        <v>0.5522</v>
       </c>
       <c r="P7" t="n">
-        <v>75</v>
+        <v>0.9478</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9732</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.6912</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.7046</v>
       </c>
       <c r="T7" t="n">
-        <v>66.77553778869046</v>
+        <v>0.6677999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>34.75480971164877</v>
+        <v>0.3475</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2754</v>
+        <v>2736</v>
       </c>
       <c r="C8" t="n">
-        <v>2736</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>0.0134</v>
       </c>
       <c r="F8" t="n">
-        <v>1.343500363108206</v>
+        <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H8" t="n">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2159827213822894</v>
+        <v>0.0022</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2159827213822894</v>
+        <v>0.0022</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>99.35205183585313</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>99.35205183585313</v>
+        <v>0.9978</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.9978</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.9989</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.9989</v>
       </c>
       <c r="T8" t="n">
-        <v>99.97794685164514</v>
+        <v>0.9998</v>
       </c>
       <c r="U8" t="n">
-        <v>98.37038018727554</v>
+        <v>0.9837</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2111</v>
       </c>
       <c r="B9" t="n">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="C9" t="n">
-        <v>2102</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="F9" t="n">
+        <v>330</v>
+      </c>
+      <c r="G9" t="n">
+        <v>328</v>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.5210800568450971</v>
-      </c>
-      <c r="G9" t="n">
-        <v>330</v>
-      </c>
-      <c r="H9" t="n">
-        <v>321</v>
-      </c>
       <c r="I9" t="n">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.424242424242424</v>
+        <v>0.0273</v>
       </c>
       <c r="M9" t="n">
-        <v>2.121212121212122</v>
+        <v>0.0212</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.9791</v>
       </c>
       <c r="O9" t="n">
-        <v>97.27272727272728</v>
+        <v>0.982</v>
       </c>
       <c r="P9" t="n">
-        <v>97.57575757575758</v>
+        <v>0.9939</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9757575757575757</v>
+        <v>0.9865</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9877300613496932</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>99.49989876462966</v>
+        <v>0.995</v>
       </c>
       <c r="U9" t="n">
-        <v>93.55857075914919</v>
+        <v>0.9356</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
@@ -550,64 +550,64 @@
         <v>1569</v>
       </c>
       <c r="B2" t="n">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0312</v>
+        <v>0.0249</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
       </c>
       <c r="G2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1343</v>
+        <v>0.1065</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1065</v>
+        <v>0.0833</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9193</v>
+        <v>0.9406</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9318</v>
+        <v>0.9537</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9491000000000001</v>
+        <v>0.9537</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9624</v>
+        <v>0.9626</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9339</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9469</v>
+        <v>0.9581</v>
       </c>
       <c r="T2" t="n">
         <v>0.9629</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8138</v>
+        <v>0.8668</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -787,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="K5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" t="n">
         <v>0.1307</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0665</v>
+        <v>0.0619</v>
       </c>
       <c r="N5" t="n">
         <v>0.9129</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9416</v>
+        <v>0.9458</v>
       </c>
       <c r="P5" t="n">
         <v>0.961</v>
@@ -811,7 +811,7 @@
         <v>0.9363</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9666</v>
+        <v>0.9688</v>
       </c>
       <c r="T5" t="n">
         <v>0.9519</v>
@@ -830,16 +830,16 @@
         <v>1496</v>
       </c>
       <c r="B6" t="n">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0241</v>
+        <v>0.0227</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -860,16 +860,16 @@
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0.096</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0556</v>
+        <v>0.0505</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9366</v>
+        <v>0.9412</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9552</v>
+        <v>0.96</v>
       </c>
       <c r="P6" t="n">
         <v>0.9697</v>
@@ -878,16 +878,16 @@
         <v>0.9897</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9529</v>
+        <v>0.9552</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9722</v>
+        <v>0.9746</v>
       </c>
       <c r="T6" t="n">
         <v>0.9495</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8279</v>
+        <v>0.8331</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -970,25 +970,25 @@
         <v>2754</v>
       </c>
       <c r="B8" t="n">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0134</v>
+        <v>0.012</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
       </c>
       <c r="G8" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1012,22 +1012,22 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9978</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9978</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9989</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9989</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0.9998</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9837</v>
+        <v>0.9946</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,16 +1040,16 @@
         <v>2111</v>
       </c>
       <c r="B9" t="n">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0052</v>
+        <v>0.0043</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1070,16 +1070,16 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0273</v>
+        <v>0.0242</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0212</v>
+        <v>0.0182</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9791</v>
+        <v>0.982</v>
       </c>
       <c r="O9" t="n">
-        <v>0.982</v>
+        <v>0.985</v>
       </c>
       <c r="P9" t="n">
         <v>0.9939</v>
@@ -1088,16 +1088,16 @@
         <v>0.997</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9865</v>
+        <v>0.988</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9893999999999999</v>
+        <v>0.9909</v>
       </c>
       <c r="T9" t="n">
         <v>0.995</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9356</v>
+        <v>0.9433</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_Qwen7b/results.xlsx
@@ -547,10 +547,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="C2" t="n">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0249</v>
+        <v>0.0251</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>3477</v>
+        <v>3459</v>
       </c>
       <c r="C3" t="n">
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0077</v>
+        <v>0.006</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="C4" t="n">
         <v>26</v>
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0255</v>
+        <v>0.0258</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="C5" t="n">
         <v>23</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0227</v>
+        <v>0.0196</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>1944</v>
+        <v>1985</v>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2415</v>
+        <v>0.1941</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>2738</v>
+        <v>2734</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.012</v>
+        <v>0.0004</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>2103</v>
+        <v>2090</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
